--- a/Файлы/1 курс/2 семестр/Теоретическая информатика/Лабы/12.03.25 - Лаба №3/Дима/лаб3.xlsx
+++ b/Файлы/1 курс/2 семестр/Теоретическая информатика/Лабы/12.03.25 - Лаба №3/Дима/лаб3.xlsx
@@ -5,17 +5,18 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luvidmi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luvidmi\Desktop\git\Codespace\Файлы\1 курс\2 семестр\Теоретическая информатика\Лабы\12.03.25 - Лаба №3\Дима\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B29E29-AF18-4657-92A9-37ADD38FE9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB89ECC5-2BE6-4975-8A99-E5E677C90148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист2" sheetId="3" r:id="rId3"/>
+    <sheet name="часть 1" sheetId="1" r:id="rId1"/>
+    <sheet name="часть 2" sheetId="2" r:id="rId2"/>
+    <sheet name="пример 3 " sheetId="4" r:id="rId3"/>
+    <sheet name="пример 1 и 2" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,30 +35,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="102">
   <si>
     <t>A</t>
   </si>
@@ -306,9 +285,6 @@
     <t>Итого к выплате:</t>
   </si>
   <si>
-    <t>Формулы, которые нужно вставить в ячейки слева</t>
-  </si>
-  <si>
     <t>1 день</t>
   </si>
   <si>
@@ -324,35 +300,86 @@
     <t>Простая сумма временных интервалов</t>
   </si>
   <si>
-    <t>Сумма минут</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Сумма часов</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Общая сумма</t>
+    <t>рабочим дням</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>выходным</t>
+  </si>
+  <si>
+    <t>9.00</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>Счет от</t>
+  </si>
+  <si>
+    <t>марка</t>
+  </si>
+  <si>
+    <t>время</t>
+  </si>
+  <si>
+    <t>Волга</t>
+  </si>
+  <si>
+    <t>с</t>
+  </si>
+  <si>
+    <t>по</t>
+  </si>
+  <si>
+    <t>Итого:</t>
+  </si>
+  <si>
+    <t>Всего:</t>
+  </si>
+  <si>
+    <t>дней</t>
+  </si>
+  <si>
+    <t>Тариф</t>
+  </si>
+  <si>
+    <t>до 4 часов</t>
+  </si>
+  <si>
+    <t>до 1 дня</t>
+  </si>
+  <si>
+    <t>до 1 недели</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="168" formatCode="dd/mm/yy\ h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy\ h:mm;@"/>
+    <numFmt numFmtId="166" formatCode="#,##0\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -379,14 +406,24 @@
       <charset val="204"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -399,14 +436,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="20">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -583,85 +614,32 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -670,51 +648,56 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -724,23 +707,18 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -750,35 +728,37 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="46" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1088,22 +1068,22 @@
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1111,7 +1091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1119,1033 +1099,1033 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D4" s="3" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D4" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:17" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+    </row>
+    <row r="5" spans="1:17" ht="17.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:17" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="M6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="N6" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="O6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="P6" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
         <v>1</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="16">
         <v>5</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="16">
         <v>50</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="17">
         <v>5200</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="17">
         <f>F7/2</f>
         <v>2600</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="17">
         <f>F7/4</f>
         <v>1300</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="16">
         <v>1</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="16">
         <v>1</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="13">
         <v>35551</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="12">
         <f>IF(J7=1,F7,IF(J7=0.5,G7,IF(J7=0.25,H7,0)))</f>
         <v>5200</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="12">
         <f>L7/100*20</f>
         <v>1040</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="12">
         <f>IF(I7=1,L7,IF(I7=2,L7/2,IF(I7=3,L7/4,IF(I7=4,0,0))))</f>
         <v>5200</v>
       </c>
-      <c r="O7" s="15">
+      <c r="O7" s="14">
         <f>SUM(L7:N7)</f>
         <v>11440</v>
       </c>
-      <c r="P7" s="16">
+      <c r="P7" s="15">
         <f>O7/30.5</f>
         <v>375.08196721311475</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
         <v>2</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="16">
         <v>5</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="16">
         <v>525</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="17">
         <v>20000</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="17">
         <f t="shared" ref="G8:G23" si="0">F8/2</f>
         <v>10000</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="17">
         <f t="shared" ref="H8:H23" si="1">F8/4</f>
         <v>5000</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="16">
         <v>1</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="16">
         <v>0.5</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="12">
         <f t="shared" ref="L8:L23" si="2">IF(J8=1,F8,IF(J8=0.5,G8,IF(J8=0.25,H8,0)))</f>
         <v>10000</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="12">
         <f t="shared" ref="M8:M23" si="3">L8/100*20</f>
         <v>2000</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="12">
         <f t="shared" ref="N8:N23" si="4">IF(I8=1,L8,IF(I8=2,L8/2,IF(I8=3,L8/4,IF(I8=4,0,0))))</f>
         <v>10000</v>
       </c>
-      <c r="O8" s="15">
+      <c r="O8" s="14">
         <f t="shared" ref="O8:O23" si="5">SUM(L8:N8)</f>
         <v>22000</v>
       </c>
-      <c r="P8" s="16">
+      <c r="P8" s="15">
         <f t="shared" ref="P8:P23" si="6">O8/30.5</f>
         <v>721.31147540983602</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
         <v>3</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="16">
         <v>5</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="16">
         <v>100</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="17">
         <v>5500</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="17">
         <f t="shared" si="0"/>
         <v>2750</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="17">
         <f t="shared" si="1"/>
         <v>1375</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="16">
         <v>2</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="16">
         <v>0.25</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="13">
         <v>35947</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="12">
         <f t="shared" si="2"/>
         <v>1375</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="12">
         <f t="shared" si="3"/>
         <v>275</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="12">
         <f t="shared" si="4"/>
         <v>687.5</v>
       </c>
-      <c r="O9" s="15">
+      <c r="O9" s="14">
         <f t="shared" si="5"/>
         <v>2337.5</v>
       </c>
-      <c r="P9" s="16">
+      <c r="P9" s="15">
         <f t="shared" si="6"/>
         <v>76.639344262295083</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
         <v>4</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="16">
         <v>1502</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="17">
         <v>20000</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="17">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="17">
         <f t="shared" si="1"/>
         <v>5000</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="16">
         <v>1</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="16">
         <v>1</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="13">
         <v>35855</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="12">
         <f t="shared" si="2"/>
         <v>20000</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="12">
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="12">
         <f t="shared" si="4"/>
         <v>20000</v>
       </c>
-      <c r="O10" s="15">
+      <c r="O10" s="14">
         <f t="shared" si="5"/>
         <v>44000</v>
       </c>
-      <c r="P10" s="16">
+      <c r="P10" s="15">
         <f t="shared" si="6"/>
         <v>1442.622950819672</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
         <v>5</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="16">
         <v>5</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="16">
         <v>2519</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="17">
         <v>4500</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="17">
         <f t="shared" si="0"/>
         <v>2250</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="17">
         <f t="shared" si="1"/>
         <v>1125</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="16">
         <v>4</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="16">
         <v>1</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="13">
         <v>35796</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="12">
         <f t="shared" si="2"/>
         <v>4500</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="12">
         <f t="shared" si="3"/>
         <v>900</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O11" s="15">
+      <c r="O11" s="14">
         <f t="shared" si="5"/>
         <v>5400</v>
       </c>
-      <c r="P11" s="16">
+      <c r="P11" s="15">
         <f t="shared" si="6"/>
         <v>177.04918032786884</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
         <v>6</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="16">
         <v>5</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="16">
         <v>137</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="17">
         <v>3500</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="17">
         <f t="shared" si="0"/>
         <v>1750</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="17">
         <f t="shared" si="1"/>
         <v>875</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="16">
         <v>2</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="16">
         <v>0.25</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="13">
         <v>36039</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="12">
         <f t="shared" si="2"/>
         <v>875</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="12">
         <f t="shared" si="3"/>
         <v>175</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N12" s="12">
         <f t="shared" si="4"/>
         <v>437.5</v>
       </c>
-      <c r="O12" s="15">
+      <c r="O12" s="14">
         <f t="shared" si="5"/>
         <v>1487.5</v>
       </c>
-      <c r="P12" s="16">
+      <c r="P12" s="15">
         <f t="shared" si="6"/>
         <v>48.770491803278688</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
         <v>7</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="16">
         <v>6</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="16">
         <v>250</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="17">
         <v>1100</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="17">
         <f t="shared" si="0"/>
         <v>550</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="17">
         <f t="shared" si="1"/>
         <v>275</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="16">
         <v>3</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="16">
         <v>0.25</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="12">
         <f t="shared" si="2"/>
         <v>275</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="12">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="12">
         <f t="shared" si="4"/>
         <v>68.75</v>
       </c>
-      <c r="O13" s="15">
+      <c r="O13" s="14">
         <f t="shared" si="5"/>
         <v>398.75</v>
       </c>
-      <c r="P13" s="16">
+      <c r="P13" s="15">
         <f t="shared" si="6"/>
         <v>13.073770491803279</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
         <v>8</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="16">
         <v>1</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="16">
         <v>150</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="17">
         <v>3000</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="17">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="17">
         <f t="shared" si="1"/>
         <v>750</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="16">
         <v>3</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="16">
         <v>0.5</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="12">
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M14" s="12">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N14" s="12">
         <f t="shared" si="4"/>
         <v>375</v>
       </c>
-      <c r="O14" s="15">
+      <c r="O14" s="14">
         <f t="shared" si="5"/>
         <v>2175</v>
       </c>
-      <c r="P14" s="16">
+      <c r="P14" s="15">
         <f t="shared" si="6"/>
         <v>71.311475409836063</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
         <v>9</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="16">
         <v>5</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="16">
         <v>100</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="17">
         <v>3200</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="17">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="17">
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="16">
         <v>3</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="16">
         <v>0.5</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K15" s="13">
         <v>36130</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="12">
         <f t="shared" si="2"/>
         <v>1600</v>
       </c>
-      <c r="M15" s="13">
-        <f t="shared" si="3"/>
+      <c r="M15" s="12">
+        <f>L15/100*20</f>
         <v>320</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N15" s="12">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="O15" s="15">
+      <c r="O15" s="14">
         <f t="shared" si="5"/>
         <v>2320</v>
       </c>
-      <c r="P15" s="16">
+      <c r="P15" s="15">
         <f t="shared" si="6"/>
         <v>76.06557377049181</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
         <v>10</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="16">
         <v>1</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="16">
         <v>135</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="17">
         <v>1500</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="17">
         <f t="shared" si="0"/>
         <v>750</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="17">
         <f t="shared" si="1"/>
         <v>375</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="16">
         <v>4</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="16">
         <v>1</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="12">
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="12">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N16" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O16" s="15">
+      <c r="O16" s="14">
         <f t="shared" si="5"/>
         <v>1800</v>
       </c>
-      <c r="P16" s="16">
+      <c r="P16" s="15">
         <f t="shared" si="6"/>
         <v>59.016393442622949</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="17">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="16">
         <v>11</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="16">
         <v>20</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="17">
         <v>8800</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="17">
         <f t="shared" si="0"/>
         <v>4400</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="17">
         <f t="shared" si="1"/>
         <v>2200</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="16">
         <v>2</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J17" s="16">
         <v>0.5</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="13">
         <v>36069</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="12">
         <f t="shared" si="2"/>
         <v>4400</v>
       </c>
-      <c r="M17" s="13">
+      <c r="M17" s="12">
         <f t="shared" si="3"/>
         <v>880</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="12">
         <f t="shared" si="4"/>
         <v>2200</v>
       </c>
-      <c r="O17" s="15">
+      <c r="O17" s="14">
         <f t="shared" si="5"/>
         <v>7480</v>
       </c>
-      <c r="P17" s="16">
+      <c r="P17" s="15">
         <f t="shared" si="6"/>
         <v>245.24590163934425</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="17">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
         <v>12</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="16">
         <v>1</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="16">
         <v>100</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="17">
         <v>3190</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="17">
         <f t="shared" si="0"/>
         <v>1595</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="17">
         <f t="shared" si="1"/>
         <v>797.5</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="16">
         <v>1</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J18" s="16">
         <v>0.25</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="13">
         <v>36069</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="12">
         <f t="shared" si="2"/>
         <v>797.5</v>
       </c>
-      <c r="M18" s="13">
+      <c r="M18" s="12">
         <f t="shared" si="3"/>
         <v>159.5</v>
       </c>
-      <c r="N18" s="13">
+      <c r="N18" s="12">
         <f t="shared" si="4"/>
         <v>797.5</v>
       </c>
-      <c r="O18" s="15">
+      <c r="O18" s="14">
         <f t="shared" si="5"/>
         <v>1754.5</v>
       </c>
-      <c r="P18" s="16">
+      <c r="P18" s="15">
         <f t="shared" si="6"/>
         <v>57.524590163934427</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="17">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
         <v>13</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="16">
         <v>2300</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="17">
         <v>10000</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="17">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="17">
         <f t="shared" si="1"/>
         <v>2500</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="16">
         <v>3</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J19" s="16">
         <v>1</v>
       </c>
-      <c r="K19" s="11" t="s">
+      <c r="K19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="12">
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
-      <c r="M19" s="13">
+      <c r="M19" s="12">
         <f t="shared" si="3"/>
         <v>2000</v>
       </c>
-      <c r="N19" s="13">
+      <c r="N19" s="12">
         <f t="shared" si="4"/>
         <v>2500</v>
       </c>
-      <c r="O19" s="15">
+      <c r="O19" s="14">
         <f t="shared" si="5"/>
         <v>14500</v>
       </c>
-      <c r="P19" s="16">
+      <c r="P19" s="15">
         <f t="shared" si="6"/>
         <v>475.40983606557376</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="17">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="16">
         <v>14</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="16">
         <v>500</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="17">
         <v>9000</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="17">
         <f t="shared" si="0"/>
         <v>4500</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="17">
         <f t="shared" si="1"/>
         <v>2250</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="16">
         <v>4</v>
       </c>
-      <c r="J20" s="17">
+      <c r="J20" s="16">
         <v>0.5</v>
       </c>
-      <c r="K20" s="11" t="s">
+      <c r="K20" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L20" s="12">
         <f t="shared" si="2"/>
         <v>4500</v>
       </c>
-      <c r="M20" s="13">
+      <c r="M20" s="12">
         <f t="shared" si="3"/>
         <v>900</v>
       </c>
-      <c r="N20" s="13">
+      <c r="N20" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O20" s="15">
+      <c r="O20" s="14">
         <f t="shared" si="5"/>
         <v>5400</v>
       </c>
-      <c r="P20" s="16">
+      <c r="P20" s="15">
         <f t="shared" si="6"/>
         <v>177.04918032786884</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="17">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="16">
         <v>15</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="16">
         <v>3</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="16">
         <v>130</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="17">
         <v>4000</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="17">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="17">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="16">
         <v>3</v>
       </c>
-      <c r="J21" s="17">
+      <c r="J21" s="16">
         <v>0.25</v>
       </c>
-      <c r="K21" s="11" t="s">
+      <c r="K21" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L21" s="12">
         <f t="shared" si="2"/>
         <v>1000</v>
       </c>
-      <c r="M21" s="13">
+      <c r="M21" s="12">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="N21" s="13">
+      <c r="N21" s="12">
         <f t="shared" si="4"/>
         <v>250</v>
       </c>
-      <c r="O21" s="15">
+      <c r="O21" s="14">
         <f t="shared" si="5"/>
         <v>1450</v>
       </c>
-      <c r="P21" s="16">
+      <c r="P21" s="15">
         <f t="shared" si="6"/>
         <v>47.540983606557376</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="17">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="16">
         <v>16</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="16">
         <v>5</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="16">
         <v>305</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="17">
         <v>2200</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="17">
         <f t="shared" si="0"/>
         <v>1100</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="17">
         <f t="shared" si="1"/>
         <v>550</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I22" s="16">
         <v>2</v>
       </c>
-      <c r="J22" s="17">
+      <c r="J22" s="16">
         <v>1</v>
       </c>
-      <c r="K22" s="14">
+      <c r="K22" s="13">
         <v>35551</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L22" s="12">
         <f t="shared" si="2"/>
         <v>2200</v>
       </c>
-      <c r="M22" s="13">
+      <c r="M22" s="12">
         <f t="shared" si="3"/>
         <v>440</v>
       </c>
-      <c r="N22" s="13">
+      <c r="N22" s="12">
         <f t="shared" si="4"/>
         <v>1100</v>
       </c>
-      <c r="O22" s="15">
+      <c r="O22" s="14">
         <f t="shared" si="5"/>
         <v>3740</v>
       </c>
-      <c r="P22" s="16">
+      <c r="P22" s="15">
         <f t="shared" si="6"/>
         <v>122.62295081967213</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="17">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="16">
         <v>17</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="16">
         <v>5</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="16">
         <v>750</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="17">
         <v>2200</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="17">
         <f t="shared" si="0"/>
         <v>1100</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H23" s="17">
         <f t="shared" si="1"/>
         <v>550</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I23" s="16">
         <v>1</v>
       </c>
-      <c r="J23" s="17">
+      <c r="J23" s="16">
         <v>1</v>
       </c>
-      <c r="K23" s="11" t="s">
+      <c r="K23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L23" s="13">
+      <c r="L23" s="12">
         <f t="shared" si="2"/>
         <v>2200</v>
       </c>
-      <c r="M23" s="13">
+      <c r="M23" s="12">
         <f t="shared" si="3"/>
         <v>440</v>
       </c>
-      <c r="N23" s="13">
+      <c r="N23" s="12">
         <f t="shared" si="4"/>
         <v>2200</v>
       </c>
-      <c r="O23" s="15">
+      <c r="O23" s="14">
         <f t="shared" si="5"/>
         <v>4840</v>
       </c>
-      <c r="P23" s="16">
+      <c r="P23" s="15">
         <f t="shared" si="6"/>
         <v>158.68852459016392</v>
       </c>
@@ -2154,7 +2134,7 @@
   <mergeCells count="1">
     <mergeCell ref="D4:I4"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2163,524 +2143,524 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB8DD6D-0B6A-46C0-B6F8-AF1435C797BA}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="102" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="102" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="36"/>
-    </row>
-    <row r="4" spans="1:9" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="35"/>
+    </row>
+    <row r="4" spans="1:9" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="37" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="37" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="36" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="38" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="38" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="37" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="30"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="39"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="29"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="38"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="36"/>
-    </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="21" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="35"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="58">
+      <c r="B8" s="4"/>
+      <c r="C8" s="44">
         <v>40362</v>
       </c>
-      <c r="D8" s="59">
+      <c r="D8" s="45">
         <v>40363</v>
       </c>
-      <c r="E8" s="59">
+      <c r="E8" s="45">
         <v>40364</v>
       </c>
-      <c r="F8" s="59">
+      <c r="F8" s="45">
         <v>40365</v>
       </c>
-      <c r="G8" s="58">
+      <c r="G8" s="44">
         <v>40366</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="29"/>
-      <c r="B9" s="6" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="28"/>
+      <c r="B9" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="40">
+      <c r="C9" s="39">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D9" s="60">
+      <c r="D9" s="46">
         <v>40363.333333333336</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="32">
         <v>0</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="32">
         <v>0</v>
       </c>
-      <c r="G9" s="40">
+      <c r="G9" s="39">
         <v>0.375</v>
       </c>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="29"/>
-      <c r="B10" s="6" t="s">
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
+      <c r="B10" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="40">
+      <c r="C10" s="39">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D10" s="61">
+      <c r="D10" s="47">
         <v>40364</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="32">
         <v>0</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="31">
         <v>0.45833333333333331</v>
       </c>
-      <c r="G10" s="40">
+      <c r="G10" s="39">
         <v>0.625</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
-      <c r="B11" s="6" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
+      <c r="B11" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="40">
+      <c r="C11" s="39">
         <f>C10-C9</f>
         <v>0.37500000000000006</v>
       </c>
-      <c r="D11" s="57">
+      <c r="D11" s="43">
         <f t="shared" ref="D11:G11" si="0">D10-D9</f>
         <v>0.66666666666424135</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="33">
         <f t="shared" si="0"/>
         <v>0.45833333333333331</v>
       </c>
-      <c r="G11" s="40">
+      <c r="G11" s="39">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="39"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="38"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="53">
+      <c r="B13" s="18"/>
+      <c r="C13" s="42">
         <v>15</v>
       </c>
-      <c r="D13" s="54">
+      <c r="D13" s="57">
         <v>60</v>
       </c>
-      <c r="E13" s="55"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="53">
+      <c r="E13" s="58"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="42">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="29"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="28"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="36">
+      <c r="B15" s="18"/>
+      <c r="C15" s="35">
         <v>1</v>
       </c>
-      <c r="D15" s="43">
+      <c r="D15" s="70">
         <v>3</v>
       </c>
-      <c r="E15" s="42"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="36">
+      <c r="E15" s="71"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="62">
+      <c r="B16" s="4"/>
+      <c r="C16" s="48">
         <f>C13*C15</f>
         <v>15</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="8">
+      <c r="D16" s="4"/>
+      <c r="E16" s="7">
         <f>D13*D15</f>
         <v>180</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="62">
+      <c r="F16" s="4"/>
+      <c r="G16" s="48">
         <f>G13*G15</f>
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="23"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="39"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="38"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="36"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="21" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="35"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="49">
+      <c r="B19" s="4"/>
+      <c r="C19" s="41">
         <v>50</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>50</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="49">
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="41">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="21" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="7">
+      <c r="B20" s="4"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="6">
         <v>20</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="49"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="21" t="s">
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="41"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="49">
+      <c r="B21" s="4"/>
+      <c r="C21" s="41">
         <v>30</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>30</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="49"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="21" t="s">
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="41"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7">
+      <c r="B22" s="4"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6">
         <v>2</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="6">
         <v>2</v>
       </c>
-      <c r="G22" s="49">
+      <c r="G22" s="41">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="21" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="62">
+      <c r="B23" s="4"/>
+      <c r="C23" s="48">
         <f>SUM(C19:C22)</f>
         <v>80</v>
       </c>
-      <c r="D23" s="63">
+      <c r="D23" s="49">
         <f t="shared" ref="D23:G23" si="1">SUM(D19:D22)</f>
         <v>100</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F23" s="67">
+      <c r="F23" s="50">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G23" s="62">
+      <c r="G23" s="48">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="23"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="39"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="26" t="s">
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="38"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="36"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="21" t="s">
+      <c r="B25" s="18"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="35"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="49">
+      <c r="B26" s="4"/>
+      <c r="C26" s="41">
         <v>70</v>
       </c>
-      <c r="D26" s="50">
+      <c r="D26" s="60">
         <v>60</v>
       </c>
-      <c r="E26" s="51"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="49">
+      <c r="E26" s="61"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="41">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="21" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="41">
+      <c r="B27" s="4"/>
+      <c r="C27" s="40">
         <v>1</v>
       </c>
-      <c r="D27" s="46">
+      <c r="D27" s="64">
         <v>3</v>
       </c>
-      <c r="E27" s="45"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="41">
+      <c r="E27" s="65"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="40">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="21" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="62">
+      <c r="B28" s="4"/>
+      <c r="C28" s="48">
         <f>C26*C27</f>
         <v>70</v>
       </c>
-      <c r="D28" s="64">
+      <c r="D28" s="67">
         <f>D26*D27</f>
         <v>180</v>
       </c>
-      <c r="E28" s="65"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="62">
+      <c r="E28" s="68"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="48">
         <f>G26*G27</f>
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="23"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="39"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="28" t="s">
+    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="22"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="38"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="27" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="48">
+      <c r="C31" s="63">
         <v>20</v>
       </c>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-    </row>
-    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="4"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="26" t="s">
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="68">
+      <c r="B33" s="18"/>
+      <c r="C33" s="51">
         <f>C16+C23+C28</f>
         <v>165</v>
       </c>
-      <c r="D33" s="19"/>
-      <c r="E33" s="68">
+      <c r="D33" s="18"/>
+      <c r="E33" s="51">
         <f>E16+D23+E23+F23+D28+C31</f>
         <v>484</v>
       </c>
-      <c r="F33" s="19"/>
-      <c r="G33" s="69">
+      <c r="F33" s="18"/>
+      <c r="G33" s="52">
         <f>G28+G23+G13</f>
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="27" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6">
         <v>70</v>
       </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="22"/>
-    </row>
-    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="23"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="25"/>
-    </row>
-    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E37" s="70" t="s">
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="21"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="22"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="24"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E37" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="F37" s="71"/>
-      <c r="G37" s="72">
+      <c r="F37" s="54"/>
+      <c r="G37" s="55">
         <f>SUM(C33:G33)-C34</f>
         <v>631</v>
       </c>
@@ -2699,139 +2679,260 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF22814-013B-40B4-AB69-A2C7348130B7}">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F6E0377-F4FB-4F30-A2A3-1473C2D3FB9B}">
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" customWidth="1"/>
-    <col min="2" max="2" width="18.21875" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
-    <col min="4" max="4" width="41.21875" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="79" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="79">
+        <v>45728</v>
+      </c>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="77" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="79">
+        <v>36019</v>
+      </c>
+      <c r="D4" s="80">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="79">
+        <v>36029</v>
+      </c>
+      <c r="D5" s="80">
+        <v>0.61250000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="10">
+        <f>C5-C4</f>
+        <v>10</v>
+      </c>
+      <c r="D7" s="80">
+        <f>D5-D4</f>
+        <v>0.23750000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="83" t="str">
+        <f>((C5-C4)&amp;" "&amp;$A$10)</f>
+        <v>10 дней</v>
+      </c>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="81">
+        <f>IF(C7&gt;=1,B15,IF($C$7&gt;4/24,B14,B13))</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="10"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="78">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="78">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="78">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF22814-013B-40B4-AB69-A2C7348130B7}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="73" t="s">
+      <c r="B1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="74" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="75">
-        <v>1</v>
-      </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="74">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="77">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D2" s="76"/>
-    </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="75">
-        <v>2</v>
-      </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="74">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="77">
-        <v>0.375</v>
-      </c>
-      <c r="D3" s="76"/>
-    </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="75">
-        <v>3</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="74">
+        <v>0.16319444444444445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="77">
-        <v>0.16319444444444445</v>
-      </c>
-      <c r="D4" s="76"/>
-    </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="75">
-        <v>4</v>
-      </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="74">
+        <v>0.18611111111111112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="77">
-        <v>0.18611111111111112</v>
-      </c>
-      <c r="D5" s="76"/>
-    </row>
-    <row r="6" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="75">
-        <v>5</v>
-      </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="82">
+        <f>SUM(B2:B5)</f>
+        <v>1.0576388888888888</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="77">
-        <f>SUM(C2:C5)</f>
-        <v>1.0576388888888888</v>
-      </c>
-      <c r="D6" s="76"/>
-    </row>
-    <row r="7" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="75">
-        <v>6</v>
-      </c>
-      <c r="B7" s="76" t="s">
+      <c r="B15" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="76" t="e" cm="1">
-        <f t="array" ref="C7">SUM(VALUE(RIGHT(TEXT(C2:C5,”чч:мм”),2)))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D7" s="76" t="e" cm="1">
-        <f t="array" ref="D7">SUM(VALUE(RIGHT(TEXT(B2:B5,”чч:мм”),2)))</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="75" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="76" t="s">
+      <c r="B16" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76" t="e" cm="1">
-        <f t="array" ref="D8">SUM(VALUE(LEFT(TEXT(B2:B5,”чч:мм”),2)))</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="75" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="76" t="str">
+        <f>"Посетите наш магазин по "&amp;A15&amp;" с "&amp;B15&amp;" до "&amp;C18&amp;"."</f>
+        <v>Посетите наш магазин по рабочим дням с 10.00 до 20.00.</v>
+      </c>
+      <c r="B18" s="76"/>
+      <c r="C18" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="76" t="s">
+    </row>
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="76" t="str">
+        <f xml:space="preserve">  ""&amp;A16&amp;" c "&amp;B16&amp;"  до "&amp;C19&amp;"."</f>
+        <v>выходным c 9.00  до 21.00.</v>
+      </c>
+      <c r="B19" s="76"/>
+      <c r="C19" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="78"/>
-      <c r="D9" s="76" t="e" cm="1">
-        <f t="array" ref="D9">(С12+INT(С11/60))&amp;”:”&amp;TEXT(С11-60*INT(С11:C11/60),”00”)</f>
-        <v>#NAME?</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
